--- a/exports/yield_files/USB Oil 5 Early.xlsx
+++ b/exports/yield_files/USB Oil 5 Early.xlsx
@@ -570,9 +570,15 @@
       <c r="N2" t="n">
         <v>1.5</v>
       </c>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+      <c r="O2" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40.86</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>63.83</v>
+      </c>
       <c r="R2" t="n">
         <v>2490.5</v>
       </c>
@@ -623,9 +629,15 @@
       <c r="N3" t="n">
         <v>1.5</v>
       </c>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="O3" t="n">
+        <v>23.13</v>
+      </c>
+      <c r="P3" t="n">
+        <v>40.47</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>63.6</v>
+      </c>
       <c r="R3" t="n">
         <v>2422.2</v>
       </c>
@@ -670,9 +682,15 @@
       </c>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+      <c r="O4" t="n">
+        <v>22.89</v>
+      </c>
+      <c r="P4" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>64.69</v>
+      </c>
       <c r="R4" t="n">
         <v>2295.4</v>
       </c>
@@ -719,9 +737,15 @@
       <c r="N5" t="n">
         <v>1</v>
       </c>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
+      <c r="O5" t="n">
+        <v>24.85</v>
+      </c>
+      <c r="P5" t="n">
+        <v>39.65</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>64.5</v>
+      </c>
       <c r="R5" t="n">
         <v>2343.9</v>
       </c>
@@ -772,9 +796,15 @@
       <c r="N6" t="n">
         <v>1.5</v>
       </c>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
+      <c r="O6" t="n">
+        <v>23.93</v>
+      </c>
+      <c r="P6" t="n">
+        <v>41.26</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>65.19</v>
+      </c>
       <c r="R6" t="n">
         <v>2042.5</v>
       </c>
@@ -819,9 +849,15 @@
       </c>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
+      <c r="O7" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="P7" t="n">
+        <v>40.11</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>63.99</v>
+      </c>
       <c r="R7" t="n">
         <v>1531.5</v>
       </c>
@@ -868,9 +904,15 @@
       <c r="N8" t="n">
         <v>1.5</v>
       </c>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
+      <c r="O8" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="P8" t="n">
+        <v>41.44</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>64.34</v>
+      </c>
       <c r="R8" t="n">
         <v>2214.4</v>
       </c>
@@ -921,9 +963,15 @@
       <c r="N9" t="n">
         <v>1.5</v>
       </c>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
+      <c r="O9" t="n">
+        <v>23.26</v>
+      </c>
+      <c r="P9" t="n">
+        <v>39.95</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>63.21</v>
+      </c>
       <c r="R9" t="n">
         <v>2491.4</v>
       </c>
@@ -968,9 +1016,15 @@
       </c>
       <c r="M10"/>
       <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
+      <c r="O10" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="P10" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>62.95</v>
+      </c>
       <c r="R10" t="n">
         <v>2136.5</v>
       </c>
@@ -1017,9 +1071,15 @@
       <c r="N11" t="n">
         <v>1.5</v>
       </c>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
+      <c r="O11" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>40.56</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>64.28</v>
+      </c>
       <c r="R11" t="n">
         <v>2217.1</v>
       </c>
@@ -1070,9 +1130,15 @@
       <c r="N12" t="n">
         <v>1</v>
       </c>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
+      <c r="O12" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="P12" t="n">
+        <v>41.45</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>65.15</v>
+      </c>
       <c r="R12" t="n">
         <v>1869.9</v>
       </c>
@@ -1117,9 +1183,15 @@
       </c>
       <c r="M13"/>
       <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
+      <c r="O13" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="P13" t="n">
+        <v>42.22</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>64.91</v>
+      </c>
       <c r="R13" t="n">
         <v>1351.8</v>
       </c>
@@ -1168,9 +1240,15 @@
       <c r="N14" t="n">
         <v>3</v>
       </c>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
+      <c r="O14" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="P14" t="n">
+        <v>43.82</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>67.58</v>
+      </c>
       <c r="R14" t="n">
         <v>1623.8</v>
       </c>
@@ -1223,9 +1301,15 @@
       <c r="N15" t="n">
         <v>2</v>
       </c>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
+      <c r="O15" t="n">
+        <v>23.51</v>
+      </c>
+      <c r="P15" t="n">
+        <v>43.03</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>66.54</v>
+      </c>
       <c r="R15" t="n">
         <v>1866.6</v>
       </c>
@@ -1272,9 +1356,15 @@
       </c>
       <c r="M16"/>
       <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
+      <c r="O16" t="n">
+        <v>22.98</v>
+      </c>
+      <c r="P16" t="n">
+        <v>43.29</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>66.27</v>
+      </c>
       <c r="R16" t="n">
         <v>1938.5</v>
       </c>
@@ -1321,9 +1411,15 @@
       <c r="N17" t="n">
         <v>1.5</v>
       </c>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
+      <c r="O17" t="n">
+        <v>25.65</v>
+      </c>
+      <c r="P17" t="n">
+        <v>40.12</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>65.77</v>
+      </c>
       <c r="R17" t="n">
         <v>2196.9</v>
       </c>
@@ -1376,9 +1472,15 @@
       <c r="N18" t="n">
         <v>1</v>
       </c>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
+      <c r="O18" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="P18" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>65.19</v>
+      </c>
       <c r="R18" t="n">
         <v>1778.5</v>
       </c>
@@ -1423,9 +1525,15 @@
       </c>
       <c r="M19"/>
       <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
+      <c r="O19" t="n">
+        <v>24</v>
+      </c>
+      <c r="P19" t="n">
+        <v>41.74</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>65.74</v>
+      </c>
       <c r="R19" t="n">
         <v>1811.8</v>
       </c>
@@ -1472,9 +1580,15 @@
       <c r="N20" t="n">
         <v>1.5</v>
       </c>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
+      <c r="O20" t="n">
+        <v>23.88</v>
+      </c>
+      <c r="P20" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>64.68</v>
+      </c>
       <c r="R20" t="n">
         <v>2385.8</v>
       </c>
@@ -1525,9 +1639,15 @@
       <c r="N21" t="n">
         <v>1</v>
       </c>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
+      <c r="O21" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="P21" t="n">
+        <v>42.04</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>65.09</v>
+      </c>
       <c r="R21" t="n">
         <v>2406.6</v>
       </c>
@@ -1572,9 +1692,15 @@
       </c>
       <c r="M22"/>
       <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
+      <c r="O22" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="P22" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>65.01</v>
+      </c>
       <c r="R22" t="n">
         <v>1733.6</v>
       </c>
@@ -1621,9 +1747,15 @@
       <c r="N23" t="n">
         <v>2</v>
       </c>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
+      <c r="O23" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="P23" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>64.81</v>
+      </c>
       <c r="R23" t="n">
         <v>2202.4</v>
       </c>
@@ -1674,9 +1806,15 @@
       <c r="N24" t="n">
         <v>1.5</v>
       </c>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
+      <c r="O24" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="P24" t="n">
+        <v>42.47</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>65.14</v>
+      </c>
       <c r="R24" t="n">
         <v>1686.1</v>
       </c>
@@ -1721,9 +1859,15 @@
       </c>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
+      <c r="O25" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="P25" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>64.33</v>
+      </c>
       <c r="R25" t="n">
         <v>1629.7</v>
       </c>
@@ -1770,9 +1914,15 @@
       <c r="N26" t="n">
         <v>1.5</v>
       </c>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
+      <c r="O26" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>44.72</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>65.82</v>
+      </c>
       <c r="R26" t="n">
         <v>2299.9</v>
       </c>
@@ -1823,9 +1973,15 @@
       <c r="N27" t="n">
         <v>1.5</v>
       </c>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
+      <c r="O27" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="P27" t="n">
+        <v>43.96</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>66.01</v>
+      </c>
       <c r="R27" t="n">
         <v>2255.3</v>
       </c>
@@ -1870,9 +2026,15 @@
       </c>
       <c r="M28"/>
       <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
+      <c r="O28" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P28" t="n">
+        <v>43.61</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>65.31</v>
+      </c>
       <c r="R28" t="n">
         <v>2064.4</v>
       </c>
@@ -1919,9 +2081,15 @@
       <c r="N29" t="n">
         <v>1.5</v>
       </c>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
+      <c r="O29" t="n">
+        <v>22.48</v>
+      </c>
+      <c r="P29" t="n">
+        <v>40.88</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>63.36</v>
+      </c>
       <c r="R29" t="n">
         <v>2568.1</v>
       </c>
@@ -1972,9 +2140,15 @@
       <c r="N30" t="n">
         <v>1</v>
       </c>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
+      <c r="O30" t="n">
+        <v>22.57</v>
+      </c>
+      <c r="P30" t="n">
+        <v>40.82</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>63.39</v>
+      </c>
       <c r="R30" t="n">
         <v>2539.4</v>
       </c>
@@ -2019,9 +2193,15 @@
       </c>
       <c r="M31"/>
       <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
+      <c r="O31" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="P31" t="n">
+        <v>40.65</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>63.15</v>
+      </c>
       <c r="R31" t="n">
         <v>1727.6</v>
       </c>
